--- a/nuon/instagram_posts_on._.riwon.xlsx
+++ b/nuon/instagram_posts_on._.riwon.xlsx
@@ -2742,7 +2742,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>304</v>
       </c>
       <c r="E21">
         <v>13</v>
@@ -2789,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -2836,7 +2836,7 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2883,7 +2883,7 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -3024,7 +3024,7 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="E28">
         <v>15</v>
@@ -3118,7 +3118,7 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>361</v>
       </c>
       <c r="E29">
         <v>16</v>
@@ -3165,7 +3165,7 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -3353,7 +3353,7 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>629</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>8</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>14</v>
@@ -3776,7 +3776,7 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -3823,7 +3823,7 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>8</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="E45">
         <v>12</v>
@@ -3917,7 +3917,7 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>8</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E49">
         <v>0</v>
